--- a/src/ExcelsiorAspose.Tests/TreatAsHtmlTests.Test.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/TreatAsHtmlTests.Test.verified.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="12.75">
+    <row r="2" spans="1:1" ht="13" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/TreatAsHtmlTests.Test.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/TreatAsHtmlTests.Test.verified.xlsx
@@ -10,19 +10,25 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$2</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Value1</t>
   </si>
   <si>
+    <t>Value2</t>
+  </si>
+  <si>
     <t xml:space="preserve">    ● the value</t>
+  </si>
+  <si>
+    <t>sss</t>
   </si>
 </sst>
 </file>
@@ -65,10 +71,13 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -469,20 +478,27 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="12.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" customHeight="1">
+    <row r="1" spans="1:2" ht="13" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="13" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" ht="13" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A2"/>
+  <autoFilter ref="A1:B2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/ExcelsiorAspose.Tests/TreatAsHtmlTests.Test.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/TreatAsHtmlTests.Test.verified.xlsx
@@ -71,16 +71,13 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -477,11 +474,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
+    <col min="1" max="1" width="13.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="10.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" customHeight="1">
+    <row r="1" spans="1:2" ht="14" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,11 +486,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13" customHeight="1">
+    <row r="2" spans="1:2" ht="14" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
